--- a/ad.xlsx
+++ b/ad.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\smartwriter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE43D06-48A5-4659-BF3C-2D65A3228797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47BBFA3-1BAC-461F-8EA7-B92342B2CD9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1770" windowWidth="21600" windowHeight="11385" xr2:uid="{B4752D14-D900-4F58-85B7-EFFE0BA4FF38}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B4752D14-D900-4F58-85B7-EFFE0BA4FF38}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>No</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -72,6 +72,18 @@
   </si>
   <si>
     <t>사이트2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이트URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://comic.naver.com/index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +102,15 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -134,12 +155,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -155,9 +179,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,21 +497,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59026EBD-491D-4714-B320-EE744E183D82}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="49.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36" style="1" customWidth="1"/>
     <col min="4" max="4" width="109.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -496,8 +525,11 @@
       <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -510,8 +542,11 @@
       <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -524,8 +559,9 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -537,11 +573,18 @@
       </c>
       <c r="D4" s="4" t="s">
         <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{A16865EB-050C-4240-9D72-BA5DB4D43B4F}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{A7214184-EF0F-4395-9D0B-A516A54BB032}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>